--- a/result.xlsx
+++ b/result.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Даниил</t>
+          <t>вяпавяп</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>setadminpassword</t>
+          <t>installation</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>вяпавяп</t>
+          <t>Даниил</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>topic_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>nickname</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>signup</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>is_admin</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>signup_admin</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -469,25 +464,45 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>улгту</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>5813154625</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Даниил</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>installation</t>
+          <t>dfgdf</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>привет</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>лабы</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5813154625</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dfgdf</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>пока</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,26 +470,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5813154625</v>
+        <v>5211018942</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dfgdf</t>
+          <t>Карпеев Данил Алексеевич</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>привет</t>
+          <t>Параша</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>лабы</t>
+          <t>улгту</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -497,12 +497,58 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dfgdf</t>
+          <t>привет</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>пока</t>
+          <t>привет</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>привет</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5211018942</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Карпеев Данил Алексеевич</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Хорошая</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>привет</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5813154625</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>привет</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>салам всем мусорам</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,99 +456,64 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>n_message</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>улгту</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5211018942</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Карпеев Данил Алексеевич</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Параша</t>
-        </is>
-      </c>
+          <t>Политический форум</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>улгту</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5813154625</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>привет</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>привет</t>
-        </is>
-      </c>
+          <t>Выборы в студсовет УлГТУ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>привет</t>
+          <t>ОТЗЫВ НАСТАВНИКА</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5211018942</v>
+        <v>522321184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Карпеев Данил Алексеевич</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Хорошая</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>привет</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5813154625</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>привет</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>салам всем мусорам</t>
+          <t>Чебиняева Ирина Леонидовна</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Чат-бот соответствует техническому заданию, все функции работают. Задание в рамках Обучения служением принято</t>
         </is>
       </c>
     </row>
